--- a/acervo separado/Acervo_Objeto_de_devocao_pessoal.xlsx
+++ b/acervo separado/Acervo_Objeto_de_devocao_pessoal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD03F2D3-4F3E-4FE9-AB78-3B88FE8D5347}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C354D94A-18C3-41F4-9662-37B916C4BC5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Ordem de Registro</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>3,2 cm</t>
+  </si>
+  <si>
+    <t>"?"</t>
   </si>
 </sst>
 </file>
@@ -549,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,6 +771,9 @@
       <c r="L4" t="s">
         <v>23</v>
       </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
       <c r="O4" t="s">
         <v>21</v>
       </c>

--- a/acervo separado/Acervo_Objeto_de_devocao_pessoal.xlsx
+++ b/acervo separado/Acervo_Objeto_de_devocao_pessoal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C354D94A-18C3-41F4-9662-37B916C4BC5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54522D3-75ED-401B-BB0D-80B55430E4A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$4</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$Q$4</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -107,9 +114,6 @@
     <t>5,0 cm</t>
   </si>
   <si>
-    <t>Vidro</t>
-  </si>
-  <si>
     <t>1403</t>
   </si>
   <si>
@@ -128,9 +132,6 @@
     <t>Escaravelho (amuleto)</t>
   </si>
   <si>
-    <t>Pedra (basalto)</t>
-  </si>
-  <si>
     <t>3,2 x 5,0 x 4,0 cm</t>
   </si>
   <si>
@@ -140,9 +141,6 @@
     <t>Cuba</t>
   </si>
   <si>
-    <t>Ágata</t>
-  </si>
-  <si>
     <t>18--</t>
   </si>
   <si>
@@ -168,6 +166,15 @@
   </si>
   <si>
     <t>"?"</t>
+  </si>
+  <si>
+    <t>mattec_303</t>
+  </si>
+  <si>
+    <t>mattec_237</t>
+  </si>
+  <si>
+    <t>mattec_4</t>
   </si>
 </sst>
 </file>
@@ -552,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,13 +638,13 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -645,28 +652,28 @@
         <v>1403</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -687,10 +694,10 @@
         <v>22</v>
       </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -698,22 +705,22 @@
         <v>1538</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -734,13 +741,13 @@
         <v>22</v>
       </c>
       <c r="R3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s">
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -748,19 +755,19 @@
         <v>1537</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
@@ -772,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
         <v>21</v>
